--- a/DayWiseContent.xlsx
+++ b/DayWiseContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E7099-3373-4BF7-BC6A-2285251069BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F589656-1CC8-47CA-97DC-F4C6BA8124EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="237">
   <si>
     <t>Day1</t>
   </si>
@@ -782,6 +782,36 @@
   </si>
   <si>
     <t>Oracle Database</t>
+  </si>
+  <si>
+    <t>Java with Database connectivity</t>
+  </si>
+  <si>
+    <t>Menu program with database app</t>
+  </si>
+  <si>
+    <t>InnerJoin, left join, right join Crossjoin,…etc</t>
+  </si>
+  <si>
+    <t>Install and configure oracle Database</t>
+  </si>
+  <si>
+    <t>One Java with oracle database example</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>Webdevelopment</t>
+  </si>
+  <si>
+    <t>Tomcat Server</t>
+  </si>
+  <si>
+    <t>htmls and Servlets</t>
+  </si>
+  <si>
+    <t>Download and configure Tomcat Server</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,27 +1797,27 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45314</v>
       </c>
@@ -1797,33 +1827,68 @@
       <c r="C87" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>226</v>
-      </c>
+      <c r="D87" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
       <c r="D90" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="F90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
-        <v>61</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" t="s">
+        <v>234</v>
+      </c>
+      <c r="E94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/DayWiseContent.xlsx
+++ b/DayWiseContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JFST124\Day3\FirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F589656-1CC8-47CA-97DC-F4C6BA8124EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212309C0-17CB-4B2A-92B1-14CC48CE02ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04D2797-0940-44A3-AF0A-8BCE4B9779F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="240">
   <si>
     <t>Day1</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>Download and configure Tomcat Server</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>doGet and doPost</t>
+  </si>
+  <si>
+    <t>casestudy</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A50B4F-F5E0-4E59-AF30-46E2CF7E1AC0}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,6 +1898,21 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
